--- a/saidas/classificacao_final_SERPRO.xlsx
+++ b/saidas/classificacao_final_SERPRO.xlsx
@@ -7,6 +7,7 @@
   <sheets>
     <sheet name="GERAL" sheetId="1" r:id="rId1"/>
     <sheet name="PPP" sheetId="2" r:id="rId2"/>
+    <sheet name="ResultadosCombinados" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -23050,4 +23051,8478 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName=""/>
+  <dimension ref="A1:A1692"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="0" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="0" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="0" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="0" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="0" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="0" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="0" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="0" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="0" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="0" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="0" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="0" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="0" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="0" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="0" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="0" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="0" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="0" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="0" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="0" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="0" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="0" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="0" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="0" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="0" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="0" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="0" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="0" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="0" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="0" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="0" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="0" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="0" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="0" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="0" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="0" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="0" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="0" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="0" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="0" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="0" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="0" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="0" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="0" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="0" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="0" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="0" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="0" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="0" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="0" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="0" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="0" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="0" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="0" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="0" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="0" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="0" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="0" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="0" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="0" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="0" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="0" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="0" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="0" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="0" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="0" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="0" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="0" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="0" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="0" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="0" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="0" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="0" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="0" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="0" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="0" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="0" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="0" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="0" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="0" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="0" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="0" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="0" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="0" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="0" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="0" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="0" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="0" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="0" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="0" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="0" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="0" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="0" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="0" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="0" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="0" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="0" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="0" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="0" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="0" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="0" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="0" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="0" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="0" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="0" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="0" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="0" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="0" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="0" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="0" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="0" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="0" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="0" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="0" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="0" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="0" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="0" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="0" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="0" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="0" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="0" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="0" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="0" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="0" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="0" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="0" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="0" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="0" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="0" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="0" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="0" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="0" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="0" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="0" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="0" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="0" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="0" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="0" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="0" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="0" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="0" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="0" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="0" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="0" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="0" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="0" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="0" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="0" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="0" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="0" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="0" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="0" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="0" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="0" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="0" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="0" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="0" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="0" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="0" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="0" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="0" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="0" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="0" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="0" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="0" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="0" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="0" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="0" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="0" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="0" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="0" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="0" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="0" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="0" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="0" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="0" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="0" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="0" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="0" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="0" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="0" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="0" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="0" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="0" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="0" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="0" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="0" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="0" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="0" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="0" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="0" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="0" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="0" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="0" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="0" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="0" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="0" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="0" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="0" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="0" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="0" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="0" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="0" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="0" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="0" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="0" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="0" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="0" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="0" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="0" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="0" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="0" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="0" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="0" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="0" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="0" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="0" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="0" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="0" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="0" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="0" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="0" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="0" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="0" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="0" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="0" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="0" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="0" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="0" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="0" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="0" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="0" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="0" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="0" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="0" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="0" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="0" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="0" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="0" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="0" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="0" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="0" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="0" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="0" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="0" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="0" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="0" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="0" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="0" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="0" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="0" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="0" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="0" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="0" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="0" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="0" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="0" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="0" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="0" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="0" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="0" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="0" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="0" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="0" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="0" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="0" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="0" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="0" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="0" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="0" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="0" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="0" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="0" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="0" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="0" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="0" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="0" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="0" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="0" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="0" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="0" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="0" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="0" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="0" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="0" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="0" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="0" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="0" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="0" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="0" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="0" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="0" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="0" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="0" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="0" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="0" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="0" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="0" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="0" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="0" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="0" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="0" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="0" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="0" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="0" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="0" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="0" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="0" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="0" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="0" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="0" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="0" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="0" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="0" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="0" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="0" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="0" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="0" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="0" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="0" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="0" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="0" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="0" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="0" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="0" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="0" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="0" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="0" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="0" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="0" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="0" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="0" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="0" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="0" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="0" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="0" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="0" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="0" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="0" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="0" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="0" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="0" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="0" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="0" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="0" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="0" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="0" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="0" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="0" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="0" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="0" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="0" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="0" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="0" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="0" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="0" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="0" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="0" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="0" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="0" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="0" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="0" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="0" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="0" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="0" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="0" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="0" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="0" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="0" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="0" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="0" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="0" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="0" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="0" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="0" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="0" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="0" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="0" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="0" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="0" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="0" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="0" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="0" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="0" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="0" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="0" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="0" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="0" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="0" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="0" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="0" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="0" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="0" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="0" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="0" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="0" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="0" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="0" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="0" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="0" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="0" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="0" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="0" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="0" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="0" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="0" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="0" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="0" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="0" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="0" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="0" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="0" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="0" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="0" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="0" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="0" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="0" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="0" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="0" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="0" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="0" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="0" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="0" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="0" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="0" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="0" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="0" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="0" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="0" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="0" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="0" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="0" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="0" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="0" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="0" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="0" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="0" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="0" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="0" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="0" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="0" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="0" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="0" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="0" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="0" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="0" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="0" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="0" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="0" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="0" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="0" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="0" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="0" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="0" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="0" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="0" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="0" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="0" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="0" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="0" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="0" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="0" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="0" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="0" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="0" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="0" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="0" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="0" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="0" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="0" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="0" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="0" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="0" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="0" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="0" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="0" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="0" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="0" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="0" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="0" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="0" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="0" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="0" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="0" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="0" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="0" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="0" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="0" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="0" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="0" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="0" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="0" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="0" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="0" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="0" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="0" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="0" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="0" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="0" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="0" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="0" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="0" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="0" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="0" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="0" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="0" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="0" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="0" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="0" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="0" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="0" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="0" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="0" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="0" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="0" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="0" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="0" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="0" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="0" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="0" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="0" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="0" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="0" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="0" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="0" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="0" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="0" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="0" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="0" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="0" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="0" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="0" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="0" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="0" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="0" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="0" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="0" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="0" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="0" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="0" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="0" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="0" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="0" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="0" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="0" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="0" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="0" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="0" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="0" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="0" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="0" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="0" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="0" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="0" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="0" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="0" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="0" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="0" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="0" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="0" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="0" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="0" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="0" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="0" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="0" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="0" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="0" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="0" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="0" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="0" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="0" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="0" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="0" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="0" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="0" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="0" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="0" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="0" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="0" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="0" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="0" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="0" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="0" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="0" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="0" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="0" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="0" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="0" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="0" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="0" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="0" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="0" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="0" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="0" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="0" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="0" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="0" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="0" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="0" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="0" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="0" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="0" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="0" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="0" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="0" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="0" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="0" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="0" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="0" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="0" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="0" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="0" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="0" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="0" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="0" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="0" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="0" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="0" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="0" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="0" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="0" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="0" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="0" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="0" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="0" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="0" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="0" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="0" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="0" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="0" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="0" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="0" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="0" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="0" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="0" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="0" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="0" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="0" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="0" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="0" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="0" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="0" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="0" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="0" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="0" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="0" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="0" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="0" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="0" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="0" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="0" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="0" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="0" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="0" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="0" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="0" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="0" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="0" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="0" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="0" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="0" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="0" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="0" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="0" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="0" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="0" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="0" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="0" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="0" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="0" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="0" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="0" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="0" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="0" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="0" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="0" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="0" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="0" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="0" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="0" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="0" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="0" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="0" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="0" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="0" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="0" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="0" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="0" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="0" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="0" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="0" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="0" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="0" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="0" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="0" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="0" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="0" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="0" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="0" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="0" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="0" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="0" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="0" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="0" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="0" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="0" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="0" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="0" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="0" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="0" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="0" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="0" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="0" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="0" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="0" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="0" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="0" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="0" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="0" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="0" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="0" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="0" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="0" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="0" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="0" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="0" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="0" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="0" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="0" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="0" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="0" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="0" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="0" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="0" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="0" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="0" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="0" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="0" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="0" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="0" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="0" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="0" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="0" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="0" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="0" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="0" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="0" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="0" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="0" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="0" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="0" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="0" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="0" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="0" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="0" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="0" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="0" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="0" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="0" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="0" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="0" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="0" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="0" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="0" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="0" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="0" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="0" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="0" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="0" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="0" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="0" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="0" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="0" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="0" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="0" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="0" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="0" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="0" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="0" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="0" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="0" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="0" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="0" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="0" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="0" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="0" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="0" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="0" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="0" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="0" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="0" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="0" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="0" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="0" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="0" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="0" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="0" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="0" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="0" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="0" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="0" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="0" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="0" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="0" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="0" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="0" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="0" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="0" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="0" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="0" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="0" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="0" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="0" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="0" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="0" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="0" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="0" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="0" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="0" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="0" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="0" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="0" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="0" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="0" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="0" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="0" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="0" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="0" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="0" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="0" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="0" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="0" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="0" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="0" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="0" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="0" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="0" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="0" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="0" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="0" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="0" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="0" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="0" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="0" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="0" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="0" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="0" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="0" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="0" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="0" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="0" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="0" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="0" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="0" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="0" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="0" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="0" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="0" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="0" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="0" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="0" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="0" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="0" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="0" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="0" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="0" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="0" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="0" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="0" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="0" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="0" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="0" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="0" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="0" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="0" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="0" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="0" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="0" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="0" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="0" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="0" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="0" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="0" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="0" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="0" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="0" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="0" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="0" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="0" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="0" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="0" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="0" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="0" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="0" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="0" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="0" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="0" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="0" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="0" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="0" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="0" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="0" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="0" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="0" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="0" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="0" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="0" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="0" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="0" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="0" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="0" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="0" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="0" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="0" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="0" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="0" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="0" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="0" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="0" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="0" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="0" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="0" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="0" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="0" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="0" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="0" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="0" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="0" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="0" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="0" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="0" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="0" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="0" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="0" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="0" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="0" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="0" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="0" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="0" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="0" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="0" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="0" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="0" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="0" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="0" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="0" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="0" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="0" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="0" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="0" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="0" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="0" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="0" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="0" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="0" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="0" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="0" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="0" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="0" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="0" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="0" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="0" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="0" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="0" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="0" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="0" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="0" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="0" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="0" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="0" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="0" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="0" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="0" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="0" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="0" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="0" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="0" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="0" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="0" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="0" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="0" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="0" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="0" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="0" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="0" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="0" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="0" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="0" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="0" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="0" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="0" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="0" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="0" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="0" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="0" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="0" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="0" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="0" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="0" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="0" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="0" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="0" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="0" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>